--- a/Datasets/Analysed Dataset (no calc)/IBM/Excel (readable)/Yelp_Result.xlsx
+++ b/Datasets/Analysed Dataset (no calc)/IBM/Excel (readable)/Yelp_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Analysed Dataset (no calc)\IBM\Excel (readable)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B4067-21AA-4283-A42B-9D82C2394E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C1EE85-B0F4-4B39-A90C-E675EE797FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Vader_Analysed_Yelp_Reviews" localSheetId="0">Tabelle1!$A$1:$B$1000</definedName>
-    <definedName name="Yelp_Result" localSheetId="0">Tabelle1!$C$1:$D$1000</definedName>
+    <definedName name="Vader_Analysed_Yelp_Reviews" localSheetId="0">Tabelle1!$A$1:$B$1001</definedName>
+    <definedName name="Yelp_Result" localSheetId="0">Tabelle1!$C$1:$D$1001</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1995">
   <si>
     <t>Polarity</t>
   </si>
@@ -6034,6 +6034,12 @@
   </si>
   <si>
     <t>Sentiment_score</t>
+  </si>
+  <si>
+    <t>0.52018</t>
+  </si>
+  <si>
+    <t>decent</t>
   </si>
 </sst>
 </file>
@@ -6098,11 +6104,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Yelp_Result" connectionId="2" xr16:uid="{067542E1-E942-4AC9-BE3C-8414C0D9563C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Vader_Analysed_Yelp_Reviews" connectionId="1" xr16:uid="{5FD46FCF-0FE1-4664-9B86-42B03DEF4165}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Vader_Analysed_Yelp_Reviews" connectionId="1" xr16:uid="{5FD46FCF-0FE1-4664-9B86-42B03DEF4165}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Yelp_Result" connectionId="2" xr16:uid="{067542E1-E942-4AC9-BE3C-8414C0D9563C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6368,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16172,10 +16178,10 @@
         <v>1</v>
       </c>
       <c r="B700" t="s">
-        <v>700</v>
+        <v>1994</v>
       </c>
       <c r="C700" t="s">
-        <v>1694</v>
+        <v>1993</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -16186,24 +16192,24 @@
         <v>1</v>
       </c>
       <c r="B701" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C701" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D701">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B702" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C702" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D702">
         <v>-1</v>
@@ -16214,10 +16220,10 @@
         <v>-1</v>
       </c>
       <c r="B703" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C703" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D703">
         <v>-1</v>
@@ -16225,30 +16231,30 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B704" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C704" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D704">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B705" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C705" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D705">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
@@ -16256,13 +16262,13 @@
         <v>-1</v>
       </c>
       <c r="B706" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C706" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D706">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
@@ -16270,27 +16276,27 @@
         <v>-1</v>
       </c>
       <c r="B707" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C707" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D707">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B708" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C708" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D708">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
@@ -16298,10 +16304,10 @@
         <v>1</v>
       </c>
       <c r="B709" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C709" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -16309,16 +16315,16 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B710" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C710" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D710">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
@@ -16326,10 +16332,10 @@
         <v>-1</v>
       </c>
       <c r="B711" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C711" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D711">
         <v>-1</v>
@@ -16340,10 +16346,10 @@
         <v>-1</v>
       </c>
       <c r="B712" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C712" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D712">
         <v>-1</v>
@@ -16354,24 +16360,24 @@
         <v>-1</v>
       </c>
       <c r="B713" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C713" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D713">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B714" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C714" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -16379,44 +16385,44 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B715" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C715" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D715">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B716" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C716" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D716">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B717" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C717" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D717">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
@@ -16424,10 +16430,10 @@
         <v>-1</v>
       </c>
       <c r="B718" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C718" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D718">
         <v>-1</v>
@@ -16435,16 +16441,16 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B719" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C719" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
@@ -16452,13 +16458,13 @@
         <v>1</v>
       </c>
       <c r="B720" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C720" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D720">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
@@ -16466,24 +16472,24 @@
         <v>1</v>
       </c>
       <c r="B721" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C721" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D721">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B722" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C722" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -16494,10 +16500,10 @@
         <v>-1</v>
       </c>
       <c r="B723" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C723" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D723">
         <v>1</v>
@@ -16508,10 +16514,10 @@
         <v>-1</v>
       </c>
       <c r="B724" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C724" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D724">
         <v>1</v>
@@ -16522,13 +16528,13 @@
         <v>-1</v>
       </c>
       <c r="B725" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C725" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D725">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
@@ -16536,10 +16542,10 @@
         <v>-1</v>
       </c>
       <c r="B726" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C726" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D726">
         <v>-1</v>
@@ -16547,16 +16553,16 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B727" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C727" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D727">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
@@ -16564,10 +16570,10 @@
         <v>1</v>
       </c>
       <c r="B728" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C728" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D728">
         <v>1</v>
@@ -16578,10 +16584,10 @@
         <v>1</v>
       </c>
       <c r="B729" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C729" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D729">
         <v>1</v>
@@ -16589,13 +16595,13 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B730" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C730" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D730">
         <v>1</v>
@@ -16606,13 +16612,13 @@
         <v>-1</v>
       </c>
       <c r="B731" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C731" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D731">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
@@ -16620,10 +16626,10 @@
         <v>-1</v>
       </c>
       <c r="B732" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C732" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D732">
         <v>-1</v>
@@ -16631,16 +16637,16 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B733" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C733" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D733">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
@@ -16648,10 +16654,10 @@
         <v>1</v>
       </c>
       <c r="B734" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C734" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D734">
         <v>1</v>
@@ -16662,10 +16668,10 @@
         <v>1</v>
       </c>
       <c r="B735" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C735" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D735">
         <v>1</v>
@@ -16676,27 +16682,27 @@
         <v>1</v>
       </c>
       <c r="B736" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C736" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D736">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B737" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C737" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D737">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
@@ -16704,13 +16710,13 @@
         <v>-1</v>
       </c>
       <c r="B738" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C738" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D738">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
@@ -16718,10 +16724,10 @@
         <v>-1</v>
       </c>
       <c r="B739" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C739" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D739">
         <v>-1</v>
@@ -16729,13 +16735,13 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B740" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C740" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D740">
         <v>-1</v>
@@ -16746,24 +16752,24 @@
         <v>1</v>
       </c>
       <c r="B741" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C741" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D741">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B742" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C742" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D742">
         <v>1</v>
@@ -16771,13 +16777,13 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B743" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C743" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D743">
         <v>1</v>
@@ -16788,10 +16794,10 @@
         <v>1</v>
       </c>
       <c r="B744" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C744" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D744">
         <v>1</v>
@@ -16799,30 +16805,30 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B745" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C745" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D745">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B746" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C746" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D746">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
@@ -16830,10 +16836,10 @@
         <v>1</v>
       </c>
       <c r="B747" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C747" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D747">
         <v>1</v>
@@ -16841,16 +16847,16 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B748" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C748" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D748">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
@@ -16858,10 +16864,10 @@
         <v>-1</v>
       </c>
       <c r="B749" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C749" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D749">
         <v>-1</v>
@@ -16872,10 +16878,10 @@
         <v>-1</v>
       </c>
       <c r="B750" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C750" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D750">
         <v>-1</v>
@@ -16883,13 +16889,13 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B751" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C751" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D751">
         <v>-1</v>
@@ -16897,13 +16903,13 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B752" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C752" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D752">
         <v>-1</v>
@@ -16911,16 +16917,16 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B753" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C753" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D753">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -16928,10 +16934,10 @@
         <v>1</v>
       </c>
       <c r="B754" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C754" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -16942,10 +16948,10 @@
         <v>1</v>
       </c>
       <c r="B755" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C755" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D755">
         <v>1</v>
@@ -16956,10 +16962,10 @@
         <v>1</v>
       </c>
       <c r="B756" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C756" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D756">
         <v>1</v>
@@ -16967,16 +16973,16 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B757" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C757" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D757">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -16984,10 +16990,10 @@
         <v>-1</v>
       </c>
       <c r="B758" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C758" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D758">
         <v>-1</v>
@@ -16995,30 +17001,30 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B759" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C759" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D759">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B760" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C760" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D760">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -17026,10 +17032,10 @@
         <v>-1</v>
       </c>
       <c r="B761" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C761" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D761">
         <v>-1</v>
@@ -17040,10 +17046,10 @@
         <v>-1</v>
       </c>
       <c r="B762" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C762" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D762">
         <v>-1</v>
@@ -17051,13 +17057,13 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B763" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C763" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D763">
         <v>-1</v>
@@ -17065,13 +17071,13 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B764" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C764" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D764">
         <v>-1</v>
@@ -17079,13 +17085,13 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B765" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C765" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D765">
         <v>-1</v>
@@ -17096,13 +17102,13 @@
         <v>1</v>
       </c>
       <c r="B766" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C766" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D766">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -17110,10 +17116,10 @@
         <v>1</v>
       </c>
       <c r="B767" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C767" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -17121,30 +17127,30 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B768" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C768" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D768">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B769" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C769" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D769">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
@@ -17152,10 +17158,10 @@
         <v>1</v>
       </c>
       <c r="B770" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C770" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -17166,10 +17172,10 @@
         <v>1</v>
       </c>
       <c r="B771" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C771" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -17177,41 +17183,41 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B772" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C772" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D772">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B773" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C773" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D773">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B774" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C774" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -17222,41 +17228,41 @@
         <v>-1</v>
       </c>
       <c r="B775" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C775" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D775">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B776" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C776" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D776">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B777" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C777" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D777">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
@@ -17264,13 +17270,13 @@
         <v>-1</v>
       </c>
       <c r="B778" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C778" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D778">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
@@ -17278,13 +17284,13 @@
         <v>-1</v>
       </c>
       <c r="B779" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C779" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D779">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
@@ -17292,10 +17298,10 @@
         <v>-1</v>
       </c>
       <c r="B780" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C780" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D780">
         <v>-1</v>
@@ -17306,10 +17312,10 @@
         <v>-1</v>
       </c>
       <c r="B781" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C781" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D781">
         <v>-1</v>
@@ -17317,30 +17323,30 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B782" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C782" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D782">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B783" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C783" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D783">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
@@ -17348,10 +17354,10 @@
         <v>-1</v>
       </c>
       <c r="B784" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C784" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D784">
         <v>-1</v>
@@ -17362,10 +17368,10 @@
         <v>-1</v>
       </c>
       <c r="B785" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C785" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D785">
         <v>-1</v>
@@ -17376,10 +17382,10 @@
         <v>-1</v>
       </c>
       <c r="B786" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C786" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D786">
         <v>-1</v>
@@ -17390,10 +17396,10 @@
         <v>-1</v>
       </c>
       <c r="B787" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C787" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D787">
         <v>-1</v>
@@ -17404,10 +17410,10 @@
         <v>-1</v>
       </c>
       <c r="B788" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C788" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D788">
         <v>-1</v>
@@ -17418,13 +17424,13 @@
         <v>-1</v>
       </c>
       <c r="B789" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C789" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D789">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
@@ -17432,13 +17438,13 @@
         <v>-1</v>
       </c>
       <c r="B790" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C790" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D790">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
@@ -17446,10 +17452,10 @@
         <v>-1</v>
       </c>
       <c r="B791" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C791" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D791">
         <v>-1</v>
@@ -17460,10 +17466,10 @@
         <v>-1</v>
       </c>
       <c r="B792" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C792" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D792">
         <v>-1</v>
@@ -17474,10 +17480,10 @@
         <v>-1</v>
       </c>
       <c r="B793" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C793" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D793">
         <v>-1</v>
@@ -17488,13 +17494,13 @@
         <v>-1</v>
       </c>
       <c r="B794" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C794" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D794">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
@@ -17502,13 +17508,13 @@
         <v>-1</v>
       </c>
       <c r="B795" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C795" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D795">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
@@ -17516,13 +17522,13 @@
         <v>-1</v>
       </c>
       <c r="B796" t="s">
-        <v>796</v>
-      </c>
-      <c r="C796">
-        <v>0</v>
+        <v>795</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1789</v>
       </c>
       <c r="D796">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
@@ -17530,24 +17536,24 @@
         <v>-1</v>
       </c>
       <c r="B797" t="s">
-        <v>797</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1790</v>
+        <v>796</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
       </c>
       <c r="D797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B798" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C798" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -17555,16 +17561,16 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B799" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C799" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D799">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
@@ -17572,10 +17578,10 @@
         <v>-1</v>
       </c>
       <c r="B800" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C800" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D800">
         <v>-1</v>
@@ -17586,10 +17592,10 @@
         <v>-1</v>
       </c>
       <c r="B801" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C801" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D801">
         <v>-1</v>
@@ -17600,10 +17606,10 @@
         <v>-1</v>
       </c>
       <c r="B802" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C802" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D802">
         <v>-1</v>
@@ -17614,10 +17620,10 @@
         <v>-1</v>
       </c>
       <c r="B803" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C803" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D803">
         <v>-1</v>
@@ -17625,16 +17631,16 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B804" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C804" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D804">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
@@ -17642,24 +17648,24 @@
         <v>1</v>
       </c>
       <c r="B805" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C805" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D805">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B806" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C806" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D806">
         <v>-1</v>
@@ -17670,10 +17676,10 @@
         <v>-1</v>
       </c>
       <c r="B807" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C807" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D807">
         <v>-1</v>
@@ -17681,30 +17687,30 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B808" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C808" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D808">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B809" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C809" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D809">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
@@ -17712,10 +17718,10 @@
         <v>-1</v>
       </c>
       <c r="B810" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C810" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D810">
         <v>-1</v>
@@ -17726,10 +17732,10 @@
         <v>-1</v>
       </c>
       <c r="B811" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C811" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D811">
         <v>-1</v>
@@ -17740,10 +17746,10 @@
         <v>-1</v>
       </c>
       <c r="B812" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C812" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D812">
         <v>-1</v>
@@ -17751,16 +17757,16 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B813" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C813" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D813">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
@@ -17768,10 +17774,10 @@
         <v>1</v>
       </c>
       <c r="B814" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C814" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D814">
         <v>1</v>
@@ -17779,30 +17785,30 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B815" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C815" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D815">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B816" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C816" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D816">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
@@ -17810,10 +17816,10 @@
         <v>1</v>
       </c>
       <c r="B817" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C817" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D817">
         <v>1</v>
@@ -17821,13 +17827,13 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B818" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C818" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D818">
         <v>1</v>
@@ -17835,13 +17841,13 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B819" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C819" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D819">
         <v>1</v>
@@ -17852,10 +17858,10 @@
         <v>1</v>
       </c>
       <c r="B820" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C820" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D820">
         <v>1</v>
@@ -17863,16 +17869,16 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B821" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C821" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D821">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
@@ -17880,13 +17886,13 @@
         <v>-1</v>
       </c>
       <c r="B822" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C822" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D822">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
@@ -17894,13 +17900,13 @@
         <v>-1</v>
       </c>
       <c r="B823" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C823" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D823">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
@@ -17908,10 +17914,10 @@
         <v>-1</v>
       </c>
       <c r="B824" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C824" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D824">
         <v>-1</v>
@@ -17922,10 +17928,10 @@
         <v>-1</v>
       </c>
       <c r="B825" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C825" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D825">
         <v>-1</v>
@@ -17936,10 +17942,10 @@
         <v>-1</v>
       </c>
       <c r="B826" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C826" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D826">
         <v>-1</v>
@@ -17950,24 +17956,24 @@
         <v>-1</v>
       </c>
       <c r="B827" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C827" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D827">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B828" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C828" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D828">
         <v>1</v>
@@ -17975,30 +17981,30 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B829" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C829" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D829">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B830" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C830" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D830">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
@@ -18006,10 +18012,10 @@
         <v>1</v>
       </c>
       <c r="B831" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C831" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D831">
         <v>1</v>
@@ -18020,10 +18026,10 @@
         <v>1</v>
       </c>
       <c r="B832" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C832" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D832">
         <v>1</v>
@@ -18034,10 +18040,10 @@
         <v>1</v>
       </c>
       <c r="B833" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C833" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D833">
         <v>1</v>
@@ -18045,13 +18051,13 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B834" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C834" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D834">
         <v>1</v>
@@ -18059,13 +18065,13 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B835" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C835" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D835">
         <v>1</v>
@@ -18076,10 +18082,10 @@
         <v>1</v>
       </c>
       <c r="B836" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C836" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D836">
         <v>1</v>
@@ -18087,13 +18093,13 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B837" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C837" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D837">
         <v>1</v>
@@ -18101,13 +18107,13 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B838" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C838" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D838">
         <v>1</v>
@@ -18118,10 +18124,10 @@
         <v>1</v>
       </c>
       <c r="B839" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C839" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D839">
         <v>1</v>
@@ -18132,13 +18138,13 @@
         <v>1</v>
       </c>
       <c r="B840" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C840" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D840">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
@@ -18146,13 +18152,13 @@
         <v>1</v>
       </c>
       <c r="B841" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C841" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D841">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
@@ -18160,13 +18166,13 @@
         <v>1</v>
       </c>
       <c r="B842" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C842" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D842">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
@@ -18174,55 +18180,55 @@
         <v>1</v>
       </c>
       <c r="B843" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C843" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D843">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B844" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C844" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D844">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B845" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C845" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D845">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B846" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C846" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D846">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
@@ -18230,10 +18236,10 @@
         <v>-1</v>
       </c>
       <c r="B847" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C847" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D847">
         <v>-1</v>
@@ -18241,16 +18247,16 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B848" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C848" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D848">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
@@ -18258,10 +18264,10 @@
         <v>1</v>
       </c>
       <c r="B849" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C849" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D849">
         <v>1</v>
@@ -18269,13 +18275,13 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B850" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C850" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D850">
         <v>1</v>
@@ -18283,13 +18289,13 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B851" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C851" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D851">
         <v>1</v>
@@ -18300,10 +18306,10 @@
         <v>1</v>
       </c>
       <c r="B852" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C852" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D852">
         <v>1</v>
@@ -18314,10 +18320,10 @@
         <v>1</v>
       </c>
       <c r="B853" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C853" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D853">
         <v>1</v>
@@ -18328,10 +18334,10 @@
         <v>1</v>
       </c>
       <c r="B854" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C854" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D854">
         <v>1</v>
@@ -18342,10 +18348,10 @@
         <v>1</v>
       </c>
       <c r="B855" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C855" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D855">
         <v>1</v>
@@ -18356,10 +18362,10 @@
         <v>1</v>
       </c>
       <c r="B856" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C856" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D856">
         <v>1</v>
@@ -18370,10 +18376,10 @@
         <v>1</v>
       </c>
       <c r="B857" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C857" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D857">
         <v>1</v>
@@ -18384,10 +18390,10 @@
         <v>1</v>
       </c>
       <c r="B858" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C858" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D858">
         <v>1</v>
@@ -18398,10 +18404,10 @@
         <v>1</v>
       </c>
       <c r="B859" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C859" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D859">
         <v>1</v>
@@ -18412,10 +18418,10 @@
         <v>1</v>
       </c>
       <c r="B860" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C860" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D860">
         <v>1</v>
@@ -18423,13 +18429,13 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B861" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C861" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D861">
         <v>1</v>
@@ -18437,13 +18443,13 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B862" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C862" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D862">
         <v>1</v>
@@ -18454,10 +18460,10 @@
         <v>1</v>
       </c>
       <c r="B863" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C863" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D863">
         <v>1</v>
@@ -18468,10 +18474,10 @@
         <v>1</v>
       </c>
       <c r="B864" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C864" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D864">
         <v>1</v>
@@ -18482,10 +18488,10 @@
         <v>1</v>
       </c>
       <c r="B865" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C865" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D865">
         <v>1</v>
@@ -18496,10 +18502,10 @@
         <v>1</v>
       </c>
       <c r="B866" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C866" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D866">
         <v>1</v>
@@ -18510,10 +18516,10 @@
         <v>1</v>
       </c>
       <c r="B867" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C867" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D867">
         <v>1</v>
@@ -18524,10 +18530,10 @@
         <v>1</v>
       </c>
       <c r="B868" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C868" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D868">
         <v>1</v>
@@ -18538,27 +18544,27 @@
         <v>1</v>
       </c>
       <c r="B869" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C869" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D869">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B870" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C870" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D870">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
@@ -18566,10 +18572,10 @@
         <v>-1</v>
       </c>
       <c r="B871" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C871" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D871">
         <v>1</v>
@@ -18580,27 +18586,27 @@
         <v>-1</v>
       </c>
       <c r="B872" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C872" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D872">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B873" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C873" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D873">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
@@ -18608,10 +18614,10 @@
         <v>1</v>
       </c>
       <c r="B874" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C874" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D874">
         <v>1</v>
@@ -18622,24 +18628,24 @@
         <v>1</v>
       </c>
       <c r="B875" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C875" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D875">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B876" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C876" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D876">
         <v>-1</v>
@@ -18647,30 +18653,30 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B877" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C877" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D877">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B878" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C878" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D878">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
@@ -18678,10 +18684,10 @@
         <v>-1</v>
       </c>
       <c r="B879" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C879" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D879">
         <v>-1</v>
@@ -18692,13 +18698,13 @@
         <v>-1</v>
       </c>
       <c r="B880" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C880" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D880">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
@@ -18706,24 +18712,24 @@
         <v>-1</v>
       </c>
       <c r="B881" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C881" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D881">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B882" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C882" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D882">
         <v>-1</v>
@@ -18734,13 +18740,13 @@
         <v>1</v>
       </c>
       <c r="B883" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C883" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D883">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
@@ -18748,10 +18754,10 @@
         <v>1</v>
       </c>
       <c r="B884" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C884" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D884">
         <v>1</v>
@@ -18759,44 +18765,44 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B885" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C885" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D885">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B886" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C886" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D886">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B887" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C887" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D887">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
@@ -18804,10 +18810,10 @@
         <v>-1</v>
       </c>
       <c r="B888" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C888" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D888">
         <v>-1</v>
@@ -18818,10 +18824,10 @@
         <v>-1</v>
       </c>
       <c r="B889" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C889" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D889">
         <v>-1</v>
@@ -18829,44 +18835,44 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B890" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C890" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D890">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B891" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C891" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D891">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B892" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C892" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D892">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
@@ -18874,10 +18880,10 @@
         <v>1</v>
       </c>
       <c r="B893" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C893" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D893">
         <v>1</v>
@@ -18885,27 +18891,27 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B894" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C894" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D894">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B895" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C895" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D895">
         <v>-1</v>
@@ -18913,16 +18919,16 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B896" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C896" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D896">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
@@ -18930,13 +18936,13 @@
         <v>-1</v>
       </c>
       <c r="B897" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C897" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D897">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
@@ -18944,24 +18950,24 @@
         <v>-1</v>
       </c>
       <c r="B898" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C898" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D898">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B899" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C899" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D899">
         <v>1</v>
@@ -18969,30 +18975,30 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B900" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C900" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D900">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B901" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C901" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D901">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.25">
@@ -19000,10 +19006,10 @@
         <v>1</v>
       </c>
       <c r="B902" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C902" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D902">
         <v>1</v>
@@ -19014,10 +19020,10 @@
         <v>1</v>
       </c>
       <c r="B903" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C903" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D903">
         <v>1</v>
@@ -19028,10 +19034,10 @@
         <v>1</v>
       </c>
       <c r="B904" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C904" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D904">
         <v>1</v>
@@ -19042,10 +19048,10 @@
         <v>1</v>
       </c>
       <c r="B905" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C905" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D905">
         <v>1</v>
@@ -19056,10 +19062,10 @@
         <v>1</v>
       </c>
       <c r="B906" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C906" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D906">
         <v>1</v>
@@ -19070,10 +19076,10 @@
         <v>1</v>
       </c>
       <c r="B907" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C907" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D907">
         <v>1</v>
@@ -19084,13 +19090,13 @@
         <v>1</v>
       </c>
       <c r="B908" t="s">
-        <v>908</v>
-      </c>
-      <c r="C908">
-        <v>0</v>
+        <v>907</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1900</v>
       </c>
       <c r="D908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
@@ -19098,13 +19104,13 @@
         <v>1</v>
       </c>
       <c r="B909" t="s">
-        <v>909</v>
-      </c>
-      <c r="C909" t="s">
-        <v>1901</v>
+        <v>908</v>
+      </c>
+      <c r="C909">
+        <v>0</v>
       </c>
       <c r="D909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
@@ -19112,10 +19118,10 @@
         <v>1</v>
       </c>
       <c r="B910" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C910" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D910">
         <v>1</v>
@@ -19123,72 +19129,72 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B911" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C911" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D911">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B912" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C912" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D912">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B913" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C913" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D913">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B914" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C914" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D914">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B915" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C915" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D915">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
@@ -19196,10 +19202,10 @@
         <v>-1</v>
       </c>
       <c r="B916" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C916" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D916">
         <v>-1</v>
@@ -19207,16 +19213,16 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B917" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C917" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D917">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
@@ -19224,10 +19230,10 @@
         <v>1</v>
       </c>
       <c r="B918" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C918" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D918">
         <v>1</v>
@@ -19238,24 +19244,24 @@
         <v>1</v>
       </c>
       <c r="B919" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C919" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D919">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B920" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C920" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D920">
         <v>-1</v>
@@ -19266,10 +19272,10 @@
         <v>-1</v>
       </c>
       <c r="B921" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C921" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D921">
         <v>-1</v>
@@ -19280,10 +19286,10 @@
         <v>-1</v>
       </c>
       <c r="B922" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C922" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D922">
         <v>-1</v>
@@ -19291,13 +19297,13 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B923" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C923" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D923">
         <v>-1</v>
@@ -19305,13 +19311,13 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B924" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C924" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D924">
         <v>-1</v>
@@ -19322,10 +19328,10 @@
         <v>-1</v>
       </c>
       <c r="B925" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C925" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D925">
         <v>-1</v>
@@ -19336,10 +19342,10 @@
         <v>-1</v>
       </c>
       <c r="B926" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C926" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D926">
         <v>-1</v>
@@ -19350,10 +19356,10 @@
         <v>-1</v>
       </c>
       <c r="B927" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C927" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D927">
         <v>-1</v>
@@ -19364,10 +19370,10 @@
         <v>-1</v>
       </c>
       <c r="B928" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C928" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D928">
         <v>-1</v>
@@ -19378,13 +19384,13 @@
         <v>-1</v>
       </c>
       <c r="B929" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C929" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D929">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
@@ -19392,27 +19398,27 @@
         <v>-1</v>
       </c>
       <c r="B930" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C930" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D930">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B931" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C931" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D931">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
@@ -19420,10 +19426,10 @@
         <v>1</v>
       </c>
       <c r="B932" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C932" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D932">
         <v>1</v>
@@ -19431,13 +19437,13 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B933" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C933" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D933">
         <v>1</v>
@@ -19445,13 +19451,13 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B934" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C934" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D934">
         <v>1</v>
@@ -19459,13 +19465,13 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B935" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C935" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D935">
         <v>1</v>
@@ -19473,13 +19479,13 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B936" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C936" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D936">
         <v>1</v>
@@ -19490,10 +19496,10 @@
         <v>1</v>
       </c>
       <c r="B937" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C937" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D937">
         <v>1</v>
@@ -19504,38 +19510,38 @@
         <v>1</v>
       </c>
       <c r="B938" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C938" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D938">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B939" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C939" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D939">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B940" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C940" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D940">
         <v>1</v>
@@ -19543,13 +19549,13 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B941" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C941" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D941">
         <v>1</v>
@@ -19560,24 +19566,24 @@
         <v>-1</v>
       </c>
       <c r="B942" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C942" t="s">
-        <v>1725</v>
+        <v>1933</v>
       </c>
       <c r="D942">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B943" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C943" t="s">
-        <v>1934</v>
+        <v>1725</v>
       </c>
       <c r="D943">
         <v>-1</v>
@@ -19585,13 +19591,13 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B944" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C944" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D944">
         <v>-1</v>
@@ -19599,16 +19605,16 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B945" t="s">
-        <v>945</v>
-      </c>
-      <c r="C945">
-        <v>0</v>
+        <v>944</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1935</v>
       </c>
       <c r="D945">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
@@ -19616,13 +19622,13 @@
         <v>1</v>
       </c>
       <c r="B946" t="s">
-        <v>946</v>
-      </c>
-      <c r="C946" t="s">
-        <v>1936</v>
+        <v>945</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
       </c>
       <c r="D946">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
@@ -19630,13 +19636,13 @@
         <v>1</v>
       </c>
       <c r="B947" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C947" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D947">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
@@ -19644,10 +19650,10 @@
         <v>1</v>
       </c>
       <c r="B948" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C948" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D948">
         <v>1</v>
@@ -19655,16 +19661,16 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B949" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C949" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D949">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
@@ -19672,10 +19678,10 @@
         <v>-1</v>
       </c>
       <c r="B950" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C950" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D950">
         <v>-1</v>
@@ -19686,10 +19692,10 @@
         <v>-1</v>
       </c>
       <c r="B951" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C951" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D951">
         <v>-1</v>
@@ -19700,10 +19706,10 @@
         <v>-1</v>
       </c>
       <c r="B952" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C952" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D952">
         <v>-1</v>
@@ -19714,10 +19720,10 @@
         <v>-1</v>
       </c>
       <c r="B953" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C953" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D953">
         <v>-1</v>
@@ -19728,10 +19734,10 @@
         <v>-1</v>
       </c>
       <c r="B954" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C954" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D954">
         <v>-1</v>
@@ -19742,10 +19748,10 @@
         <v>-1</v>
       </c>
       <c r="B955" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C955" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D955">
         <v>-1</v>
@@ -19753,58 +19759,58 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B956" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C956" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D956">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B957" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C957" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D957">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B958" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C958" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D958">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B959" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C959" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D959">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
@@ -19812,10 +19818,10 @@
         <v>-1</v>
       </c>
       <c r="B960" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C960" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D960">
         <v>-1</v>
@@ -19826,10 +19832,10 @@
         <v>-1</v>
       </c>
       <c r="B961" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C961" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D961">
         <v>-1</v>
@@ -19840,10 +19846,10 @@
         <v>-1</v>
       </c>
       <c r="B962" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C962" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D962">
         <v>-1</v>
@@ -19854,24 +19860,24 @@
         <v>-1</v>
       </c>
       <c r="B963" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C963" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D963">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B964" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C964" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D964">
         <v>1</v>
@@ -19879,16 +19885,16 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B965" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C965" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D965">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
@@ -19896,10 +19902,10 @@
         <v>-1</v>
       </c>
       <c r="B966" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C966" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D966">
         <v>-1</v>
@@ -19910,10 +19916,10 @@
         <v>-1</v>
       </c>
       <c r="B967" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C967" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D967">
         <v>-1</v>
@@ -19921,16 +19927,16 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B968" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C968" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D968">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
@@ -19938,10 +19944,10 @@
         <v>1</v>
       </c>
       <c r="B969" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C969" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D969">
         <v>1</v>
@@ -19952,10 +19958,10 @@
         <v>1</v>
       </c>
       <c r="B970" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C970" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D970">
         <v>1</v>
@@ -19963,16 +19969,16 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B971" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C971" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D971">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
@@ -19980,10 +19986,10 @@
         <v>-1</v>
       </c>
       <c r="B972" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C972" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D972">
         <v>-1</v>
@@ -19991,16 +19997,16 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B973" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C973" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D973">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
@@ -20008,10 +20014,10 @@
         <v>1</v>
       </c>
       <c r="B974" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C974" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D974">
         <v>1</v>
@@ -20022,10 +20028,10 @@
         <v>1</v>
       </c>
       <c r="B975" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C975" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D975">
         <v>1</v>
@@ -20036,10 +20042,10 @@
         <v>1</v>
       </c>
       <c r="B976" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C976" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D976">
         <v>1</v>
@@ -20050,10 +20056,10 @@
         <v>1</v>
       </c>
       <c r="B977" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C977" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D977">
         <v>1</v>
@@ -20064,10 +20070,10 @@
         <v>1</v>
       </c>
       <c r="B978" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C978" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D978">
         <v>1</v>
@@ -20075,41 +20081,41 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B979" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C979" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D979">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B980" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C980" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D980">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B981" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C981" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D981">
         <v>1</v>
@@ -20120,41 +20126,41 @@
         <v>-1</v>
       </c>
       <c r="B982" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C982" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D982">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B983" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C983" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D983">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B984" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C984" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D984">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.25">
@@ -20162,10 +20168,10 @@
         <v>-1</v>
       </c>
       <c r="B985" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C985" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D985">
         <v>-1</v>
@@ -20173,27 +20179,27 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B986" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C986" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D986">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B987" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C987" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D987">
         <v>1</v>
@@ -20204,10 +20210,10 @@
         <v>-1</v>
       </c>
       <c r="B988" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C988" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D988">
         <v>1</v>
@@ -20215,27 +20221,27 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B989" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C989" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D989">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B990" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C990" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D990">
         <v>-1</v>
@@ -20246,10 +20252,10 @@
         <v>-1</v>
       </c>
       <c r="B991" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C991" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D991">
         <v>-1</v>
@@ -20260,13 +20266,13 @@
         <v>-1</v>
       </c>
       <c r="B992" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C992" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D992">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.25">
@@ -20274,41 +20280,41 @@
         <v>-1</v>
       </c>
       <c r="B993" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C993" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D993">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B994" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C994" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D994">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B995" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C995" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D995">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.25">
@@ -20316,10 +20322,10 @@
         <v>-1</v>
       </c>
       <c r="B996" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C996" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D996">
         <v>-1</v>
@@ -20330,10 +20336,10 @@
         <v>-1</v>
       </c>
       <c r="B997" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C997" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D997">
         <v>-1</v>
@@ -20341,43 +20347,57 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B998" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C998" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D998">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B999" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C999" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D999">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B1000" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D1000">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1</v>
+      </c>
+      <c r="B1001" t="s">
         <v>1000</v>
       </c>
-      <c r="C1000" t="s">
+      <c r="C1001" t="s">
         <v>1990</v>
       </c>
-      <c r="D1000">
+      <c r="D1001">
         <v>-1</v>
       </c>
     </row>
